--- a/medicine/Mort/Cimetière_juif_du_Mont_des_Oliviers/Cimetière_juif_du_Mont_des_Oliviers.xlsx
+++ b/medicine/Mort/Cimetière_juif_du_Mont_des_Oliviers/Cimetière_juif_du_Mont_des_Oliviers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_du_Mont_des_Oliviers</t>
+          <t>Cimetière_juif_du_Mont_des_Oliviers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière juif du mont des Oliviers est un cimetière de Jérusalem. Il est le plus ancien cimetière juif dans le monde. Il est également le plus grand cimetière juif, la raison en étant que, selon la Bible (Zacharie, 14, 4), c'est là que débutera la rédemption. Il fait face à la vieille ville de Jérusalem. Le cimetière compte plus de 150 000 tombes[1].
-Selon Vincent Lemire, les tombes les plus anciennes, sur le flanc occidental sud du mont des Oliviers datent de la fin du IVe millénaire avant notre ère[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière juif du mont des Oliviers est un cimetière de Jérusalem. Il est le plus ancien cimetière juif dans le monde. Il est également le plus grand cimetière juif, la raison en étant que, selon la Bible (Zacharie, 14, 4), c'est là que débutera la rédemption. Il fait face à la vieille ville de Jérusalem. Le cimetière compte plus de 150 000 tombes.
+Selon Vincent Lemire, les tombes les plus anciennes, sur le flanc occidental sud du mont des Oliviers datent de la fin du IVe millénaire avant notre ère.  
 Lieux remarquables :
 Yad Avshalom
 Tombe de Zacharie
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_du_Mont_des_Oliviers</t>
+          <t>Cimetière_juif_du_Mont_des_Oliviers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Rabbins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Yehouda Hay Alkalay
 Ovadia ben Abraham de Bertinoro
@@ -567,7 +581,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_du_Mont_des_Oliviers</t>
+          <t>Cimetière_juif_du_Mont_des_Oliviers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,7 +599,9 @@
           <t>Hassidisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vierge de Ludomir</t>
         </is>
@@ -597,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_du_Mont_des_Oliviers</t>
+          <t>Cimetière_juif_du_Mont_des_Oliviers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,7 +631,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sheldon Adelson
 Samuel Joseph Agnon
